--- a/ODK/XlsForm/belajar.xlsx
+++ b/ODK/XlsForm/belajar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadsyafiqkamil/Documents/data/internship/repo-internship-nu-jerman/ODK/XlsForm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadsyafiqkamil/Documents/data/internship/NUJ-Internship-2020-Blue/ODK/XlsForm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660ABA78-BE07-9546-9B2E-5B54909B0DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C15246-5868-9C47-9E64-E5E4B35FE4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>type</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>coba_if</t>
+  </si>
+  <si>
+    <t>if(${jumlah}&gt;10,"jelek","bagus")</t>
+  </si>
+  <si>
+    <t>hasil_if</t>
+  </si>
+  <si>
+    <t>ifnya :  ${coba_if}</t>
   </si>
 </sst>
 </file>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,19 +679,41 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
